--- a/maze/metricasDFS.xlsx
+++ b/maze/metricasDFS.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="metricasDFS" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -91,6 +91,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000%"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -539,7 +542,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -582,15 +585,17 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -630,6 +635,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -946,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N603"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B294" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K309" sqref="K309"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,6 +964,7 @@
     <col min="4" max="4" width="16.5703125" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" customWidth="1"/>
     <col min="10" max="10" width="11.140625" customWidth="1"/>
     <col min="11" max="11" width="17.5703125" customWidth="1"/>
@@ -987,17 +994,17 @@
       <c r="C2">
         <v>9.9699999999999997E-2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -1009,21 +1016,21 @@
       <c r="C3">
         <v>9.9500000000000005E-2</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1" t="s">
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -1035,31 +1042,31 @@
       <c r="C4">
         <v>9.6699999999999994E-2</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1073,39 +1080,39 @@
       <c r="C5">
         <v>9.9099999999999994E-2</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <f>AVERAGE(A2:A301)</f>
         <v>9.6580666666666662E-2</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="3">
         <f>MAX(A2:A301)</f>
         <v>0.1011</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="3">
         <f>MIN(A2:A301)</f>
         <v>9.2299999999999993E-2</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="3">
         <f>AVERAGE(B2:B301)</f>
         <v>1.746333333333335E-3</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="3">
         <f>MAX(B2:B301)</f>
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="3">
         <f>MIN(B2:B301)</f>
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="3">
         <f>AVERAGE(C2:C301)</f>
         <v>0.10027333333333341</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="3">
         <f>MAX(C2:C301)</f>
         <v>0.1053</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="3">
         <f>MIN(C2:C301)</f>
         <v>9.5500000000000002E-2</v>
       </c>
@@ -4367,15 +4374,15 @@
       </c>
     </row>
     <row r="302" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H302" s="1" t="s">
+      <c r="H302" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I302" s="1"/>
-      <c r="J302" s="1"/>
-      <c r="K302" s="1"/>
-      <c r="L302" s="1"/>
-      <c r="M302" s="1"/>
-      <c r="N302" s="1"/>
+      <c r="I302" s="2"/>
+      <c r="J302" s="2"/>
+      <c r="K302" s="2"/>
+      <c r="L302" s="2"/>
+      <c r="M302" s="2"/>
+      <c r="N302" s="2"/>
     </row>
     <row r="303" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
@@ -4396,17 +4403,17 @@
       <c r="F303" t="s">
         <v>8</v>
       </c>
-      <c r="H303" s="2"/>
-      <c r="I303" s="1" t="s">
+      <c r="H303" s="1"/>
+      <c r="I303" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J303" s="1"/>
-      <c r="K303" s="1"/>
-      <c r="L303" s="1" t="s">
+      <c r="J303" s="2"/>
+      <c r="K303" s="2"/>
+      <c r="L303" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M303" s="1"/>
-      <c r="N303" s="1"/>
+      <c r="M303" s="2"/>
+      <c r="N303" s="2"/>
     </row>
     <row r="304" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A304">
@@ -4427,25 +4434,25 @@
       <c r="F304">
         <v>0.97840000000000005</v>
       </c>
-      <c r="H304" s="2" t="s">
+      <c r="H304" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I304" s="2" t="s">
+      <c r="I304" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J304" s="2" t="s">
+      <c r="J304" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K304" s="2" t="s">
+      <c r="K304" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L304" s="2" t="s">
+      <c r="L304" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M304" s="2" t="s">
+      <c r="M304" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N304" s="2" t="s">
+      <c r="N304" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4468,28 +4475,28 @@
       <c r="F305">
         <v>0.45029999999999998</v>
       </c>
-      <c r="H305" s="2"/>
-      <c r="I305" s="2">
+      <c r="H305" s="1"/>
+      <c r="I305" s="1">
         <f>AVERAGE(A304:A603)</f>
         <v>1837.2133333333334</v>
       </c>
-      <c r="J305" s="2">
+      <c r="J305" s="1">
         <f>MAX(A304:A603)</f>
         <v>4048</v>
       </c>
-      <c r="K305" s="2">
+      <c r="K305" s="1">
         <f>MIN(A304:A603)</f>
         <v>714</v>
       </c>
-      <c r="L305" s="2">
+      <c r="L305" s="3">
         <f>AVERAGE(B304:B603)</f>
         <v>0.70161066666666694</v>
       </c>
-      <c r="M305" s="2">
+      <c r="M305" s="3">
         <f>MAX(B304:B603)</f>
         <v>0.99950000000000006</v>
       </c>
-      <c r="N305" s="2">
+      <c r="N305" s="3">
         <f>MIN(B304:B603)</f>
         <v>0.1764</v>
       </c>
@@ -4513,25 +4520,25 @@
       <c r="F306">
         <v>0.95399999999999996</v>
       </c>
-      <c r="H306" s="2" t="s">
+      <c r="H306" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I306" s="2" t="s">
+      <c r="I306" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J306" s="2" t="s">
+      <c r="J306" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K306" s="2" t="s">
+      <c r="K306" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L306" s="2" t="s">
+      <c r="L306" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M306" s="2" t="s">
+      <c r="M306" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N306" s="2" t="s">
+      <c r="N306" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4554,28 +4561,28 @@
       <c r="F307">
         <v>0.71160000000000001</v>
       </c>
-      <c r="H307" s="2"/>
-      <c r="I307" s="2">
+      <c r="H307" s="1"/>
+      <c r="I307" s="1">
         <f>AVERAGE(C304:C603)</f>
         <v>1837.2133333333334</v>
       </c>
-      <c r="J307" s="2">
+      <c r="J307" s="1">
         <f>MAX(C304:C603)</f>
         <v>4048</v>
       </c>
-      <c r="K307" s="2">
+      <c r="K307" s="1">
         <f>MIN(C304:C603)</f>
         <v>714</v>
       </c>
-      <c r="L307" s="2">
+      <c r="L307" s="3">
         <f>AVERAGE(D304:D603)</f>
         <v>0.70204299999999997</v>
       </c>
-      <c r="M307" s="2">
+      <c r="M307" s="3">
         <f>MAX(D304:D603)</f>
         <v>0.99960000000000004</v>
       </c>
-      <c r="N307" s="2">
+      <c r="N307" s="3">
         <f>MIN(D304:D603)</f>
         <v>0.17699999999999999</v>
       </c>
@@ -4599,25 +4606,25 @@
       <c r="F308">
         <v>0.74550000000000005</v>
       </c>
-      <c r="H308" s="2" t="s">
+      <c r="H308" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I308" s="2" t="s">
+      <c r="I308" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J308" s="2" t="s">
+      <c r="J308" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K308" s="2" t="s">
+      <c r="K308" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L308" s="2" t="s">
+      <c r="L308" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M308" s="2" t="s">
+      <c r="M308" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N308" s="2" t="s">
+      <c r="N308" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4640,28 +4647,28 @@
       <c r="F309">
         <v>0.88300000000000001</v>
       </c>
-      <c r="H309" s="2"/>
-      <c r="I309" s="2">
+      <c r="H309" s="1"/>
+      <c r="I309" s="1">
         <f>AVERAGE(E304:E603)</f>
         <v>1837.2133333333334</v>
       </c>
-      <c r="J309" s="2">
+      <c r="J309" s="1">
         <f>MAX(E304:E603)</f>
         <v>4048</v>
       </c>
-      <c r="K309" s="2">
+      <c r="K309" s="1">
         <f>MIN(E304:E603)</f>
         <v>714</v>
       </c>
-      <c r="L309" s="2">
+      <c r="L309" s="3">
         <f>AVERAGE(F304:F603)</f>
         <v>0.70161066666666694</v>
       </c>
-      <c r="M309" s="2">
+      <c r="M309" s="3">
         <f>MAX(F304:F603)</f>
         <v>0.99950000000000006</v>
       </c>
-      <c r="N309" s="2">
+      <c r="N309" s="3">
         <f>MIN(F304:F603)</f>
         <v>0.1764</v>
       </c>
@@ -10548,13 +10555,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="F2:N2"/>
     <mergeCell ref="I303:K303"/>
     <mergeCell ref="L303:N303"/>
     <mergeCell ref="H302:N302"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="L3:N3"/>
-    <mergeCell ref="F2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
